--- a/PRODUCTOS/EJERCICIO_COBERTURA.xlsx
+++ b/PRODUCTOS/EJERCICIO_COBERTURA.xlsx
@@ -5,20 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollambo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OMAR LLAMBO\IPP\IPP-2023\PRODUCTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15516" windowHeight="8808" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MUESTRA" sheetId="1" r:id="rId1"/>
     <sheet name="COBERTURA" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COBERTURA!$A$1:$E$45</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -60,9 +64,6 @@
     <t>C102001</t>
   </si>
   <si>
-    <t>C102002</t>
-  </si>
-  <si>
     <t>C102004</t>
   </si>
   <si>
@@ -96,9 +97,6 @@
     <t>B081011_2</t>
   </si>
   <si>
-    <t>B081011_3</t>
-  </si>
-  <si>
     <t>B081012_2</t>
   </si>
   <si>
@@ -108,9 +106,6 @@
     <t>C101012_2</t>
   </si>
   <si>
-    <t>C101022_2</t>
-  </si>
-  <si>
     <t>B081012_1</t>
   </si>
   <si>
@@ -141,18 +136,9 @@
     <t>C101011_3</t>
   </si>
   <si>
-    <t>C101011_4</t>
-  </si>
-  <si>
-    <t>C101011_5</t>
-  </si>
-  <si>
     <t>C101012_3</t>
   </si>
   <si>
-    <t>C101022_3</t>
-  </si>
-  <si>
     <t>5A</t>
   </si>
   <si>
@@ -160,6 +146,21 @@
   </si>
   <si>
     <t>5C</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Cuenta de COD 7</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -183,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +209,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -362,11 +375,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,9 +420,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,13 +428,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,6 +467,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -467,6 +518,506 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INEC Omar Llambo" refreshedDate="45191.618882060182" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="44">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E45" sheet="COBERTURA"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="id" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="12"/>
+    </cacheField>
+    <cacheField name="DOMINIO" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ACT PRINCIPAL" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="COD 6" numFmtId="0">
+      <sharedItems count="7">
+        <s v="A022001"/>
+        <s v="A031101"/>
+        <s v="B081011"/>
+        <s v="B081012"/>
+        <s v="C101011"/>
+        <s v="C101012"/>
+        <s v="C101022"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="COD 7" numFmtId="0">
+      <sharedItems count="23">
+        <s v="A022001_1"/>
+        <s v="A031101_1"/>
+        <s v="B081011_1"/>
+        <s v="B081011_2"/>
+        <s v="B081011_4"/>
+        <s v="B081011_5"/>
+        <s v="B081012_1"/>
+        <s v="B081012_2"/>
+        <s v="B081012_4"/>
+        <s v="B081012_5"/>
+        <s v="B081012_3"/>
+        <s v="C101011_1"/>
+        <s v="C101011_2"/>
+        <s v="C101011_3"/>
+        <s v="C101012_1"/>
+        <s v="C101012_2"/>
+        <s v="C101012_3"/>
+        <s v="C101022_1"/>
+        <s v="C101011_4" u="1"/>
+        <s v="C101022_3" u="1"/>
+        <s v="B081011_3" u="1"/>
+        <s v="C101011_5" u="1"/>
+        <s v="C101022_2" u="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="44">
+  <r>
+    <n v="1"/>
+    <m/>
+    <s v="A"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <m/>
+    <s v="A"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <m/>
+    <s v="B"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <m/>
+    <s v="B"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <m/>
+    <s v="B"/>
+    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <m/>
+    <s v="B"/>
+    <x v="3"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <m/>
+    <s v="C"/>
+    <x v="4"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <m/>
+    <s v="C"/>
+    <x v="5"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <m/>
+    <s v="C"/>
+    <x v="6"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <m/>
+    <s v="C"/>
+    <x v="4"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <m/>
+    <s v="C"/>
+    <x v="5"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <m/>
+    <s v="C"/>
+    <x v="6"/>
+    <x v="17"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G2:H21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="24">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="20"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item m="1" x="18"/>
+        <item m="1" x="21"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item m="1" x="22"/>
+        <item m="1" x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de COD 7" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C13"/>
+    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,169 +1295,275 @@
     <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="35"/>
+      <c r="G1" s="37">
+        <v>2</v>
+      </c>
+      <c r="H1" s="37">
+        <v>3</v>
+      </c>
+      <c r="I1" s="37">
+        <v>4</v>
+      </c>
+      <c r="J1" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <f>SUM(G2:J2)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="38">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K4" si="0">SUM(G3:J3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G5" s="2">
+        <f>SUM(G2:G4)</f>
+        <v>24</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:J5" si="1">SUM(H2:H4)</f>
+        <v>17</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUM(K2:K4)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8" s="44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F9" s="44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G15" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -916,565 +1573,687 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="23" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="41">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="G2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="42"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="24"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27">
+      <c r="E3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="E4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="E5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="42"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="E6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="42"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="E7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="41">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="E8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="E9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="E10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="42"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
+      <c r="E11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="42"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="41">
+        <v>5</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>5</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="H13" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="42"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="E14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="E15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="42"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="H16" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="42"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21" t="s">
+      <c r="E17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="43"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="E18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="42">
         <v>6</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="E19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="42"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="E20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="E21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="32">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16"/>
+      <c r="E22" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="42"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="E23" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="41">
         <v>7</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="14" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
+      <c r="E24" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="31"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
+      <c r="E25" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="31"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
+      <c r="E26" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="42"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="31"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16"/>
+      <c r="E27" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="42"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="31"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="E28" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="41">
         <v>8</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="14" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
+      <c r="E29" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="42"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="31"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="16"/>
+      <c r="E30" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="42"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="31"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+      <c r="E31" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="41">
         <v>9</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="14" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>30</v>
+      <c r="E32" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="28"/>
+      <c r="D33" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="43"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="41">
+        <v>10</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="43"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="41">
+        <v>11</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="42"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="42"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="42"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="42"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="42"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="24">
+        <v>12</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
-        <v>10</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
-        <v>11</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="16"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="27">
-        <v>12</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>30</v>
+      <c r="E45" s="23" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1493,4 +2272,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>